--- a/IPL/Rajasthan Royals/Shreyas Gopal .xlsx
+++ b/IPL/Rajasthan Royals/Shreyas Gopal .xlsx
@@ -408,13 +408,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" t="str">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C5" t="str">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>

--- a/IPL/Rajasthan Royals/Shreyas Gopal .xlsx
+++ b/IPL/Rajasthan Royals/Shreyas Gopal .xlsx
@@ -408,13 +408,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
+        <v>6</v>
+      </c>
+      <c r="D2" t="str">
+        <v>4</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C5" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C6" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
